--- a/outputdata/Multipliers2016.xlsx
+++ b/outputdata/Multipliers2016.xlsx
@@ -542,12 +542,6 @@
       <c r="U2">
         <v>199.344655168777</v>
       </c>
-      <c r="V2">
-        <v>0.011457915908775</v>
-      </c>
-      <c r="W2">
-        <v>5.747791882894502e-005</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -571,7 +565,7 @@
         <v>0.71760323413257</v>
       </c>
       <c r="G3">
-        <v>0.1841974635584101</v>
+        <v>0.18419746355841</v>
       </c>
       <c r="H3">
         <v>0.90180069769098</v>
@@ -617,12 +611,6 @@
       <c r="U3">
         <v>63.5439024216319</v>
       </c>
-      <c r="V3">
-        <v>7.67874478448478</v>
-      </c>
-      <c r="W3">
-        <v>0.1208415676697682</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -692,12 +680,6 @@
       <c r="U4">
         <v>141.527597517668</v>
       </c>
-      <c r="V4">
-        <v>34.1131107474715</v>
-      </c>
-      <c r="W4">
-        <v>0.2410350443715608</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -767,12 +749,6 @@
       <c r="U5">
         <v>5354.25622923858</v>
       </c>
-      <c r="V5">
-        <v>3371.32033313202</v>
-      </c>
-      <c r="W5">
-        <v>0.629652408997888</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -842,12 +818,6 @@
       <c r="U6">
         <v>204.424427054976</v>
       </c>
-      <c r="V6">
-        <v>117.062697978092</v>
-      </c>
-      <c r="W6">
-        <v>0.5726453519500888</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -917,12 +887,6 @@
       <c r="U7">
         <v>7550.81833555884</v>
       </c>
-      <c r="V7">
-        <v>3876.70116931456</v>
-      </c>
-      <c r="W7">
-        <v>0.5134147051397235</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -992,12 +956,6 @@
       <c r="U8">
         <v>1027.4443636161</v>
       </c>
-      <c r="V8">
-        <v>386.821774662692</v>
-      </c>
-      <c r="W8">
-        <v>0.3764892663397064</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1067,12 +1025,6 @@
       <c r="U9">
         <v>618.323726303458</v>
       </c>
-      <c r="V9">
-        <v>336.615825138605</v>
-      </c>
-      <c r="W9">
-        <v>0.5444006283747266</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1099,7 +1051,7 @@
         <v>0.2106552963338</v>
       </c>
       <c r="H10">
-        <v>0.78530616220832</v>
+        <v>0.7853061622083199</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1142,12 +1094,6 @@
       <c r="U10">
         <v>771.946779227193</v>
       </c>
-      <c r="V10">
-        <v>205.794612039348</v>
-      </c>
-      <c r="W10">
-        <v>0.2665917101764087</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1217,12 +1163,6 @@
       <c r="U11">
         <v>38.5638493896377</v>
       </c>
-      <c r="V11">
-        <v>0.540767301341995</v>
-      </c>
-      <c r="W11">
-        <v>0.01402264841038669</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1292,12 +1232,6 @@
       <c r="U12">
         <v>171.820803617171</v>
       </c>
-      <c r="V12">
-        <v>57.2988797849014</v>
-      </c>
-      <c r="W12">
-        <v>0.333480455094177</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1367,12 +1301,6 @@
       <c r="U13">
         <v>262.122090160123</v>
       </c>
-      <c r="V13">
-        <v>12.1395111716711</v>
-      </c>
-      <c r="W13">
-        <v>0.04631243083807021</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1442,12 +1370,6 @@
       <c r="U14">
         <v>61.9494856665878</v>
       </c>
-      <c r="V14">
-        <v>21.1684939654647</v>
-      </c>
-      <c r="W14">
-        <v>0.3417057258456279</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1517,12 +1439,6 @@
       <c r="U15">
         <v>189.960761269405</v>
       </c>
-      <c r="V15">
-        <v>2.31035955230974</v>
-      </c>
-      <c r="W15">
-        <v>0.01216229887093975</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1592,12 +1508,6 @@
       <c r="U16">
         <v>424.388304390291</v>
       </c>
-      <c r="V16">
-        <v>62.843325775013</v>
-      </c>
-      <c r="W16">
-        <v>0.1480797777056994</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1667,12 +1577,6 @@
       <c r="U17">
         <v>1844.35229851711</v>
       </c>
-      <c r="V17">
-        <v>459.173064940302</v>
-      </c>
-      <c r="W17">
-        <v>0.2489616898623353</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1742,12 +1646,6 @@
       <c r="U18">
         <v>172.795108538789</v>
       </c>
-      <c r="V18">
-        <v>8.1985303829355</v>
-      </c>
-      <c r="W18">
-        <v>0.04744654204777501</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1817,12 +1715,6 @@
       <c r="U19">
         <v>69.04386798517</v>
       </c>
-      <c r="V19">
-        <v>30.7020807369264</v>
-      </c>
-      <c r="W19">
-        <v>0.444674981759726</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1884,7 +1776,7 @@
         <v>0.7907012087067099</v>
       </c>
       <c r="S20">
-        <v>94.25188864800001</v>
+        <v>94.251888648</v>
       </c>
       <c r="T20">
         <v>19</v>
@@ -1892,12 +1784,6 @@
       <c r="U20">
         <v>23.8311554208065</v>
       </c>
-      <c r="V20">
-        <v>1.51311715625424</v>
-      </c>
-      <c r="W20">
-        <v>0.06349323520139388</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1967,12 +1853,6 @@
       <c r="U21">
         <v>174.419575668149</v>
       </c>
-      <c r="V21">
-        <v>4.4865429810205</v>
-      </c>
-      <c r="W21">
-        <v>0.02572270322200878</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2042,12 +1922,6 @@
       <c r="U22">
         <v>17.7140732481128</v>
       </c>
-      <c r="V22">
-        <v>0.401880717129283</v>
-      </c>
-      <c r="W22">
-        <v>0.02268708678689121</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -2074,7 +1948,7 @@
         <v>0.2176491579519</v>
       </c>
       <c r="H23">
-        <v>0.63885570282025</v>
+        <v>0.6388557028202499</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2117,12 +1991,6 @@
       <c r="U23">
         <v>654.558534474114</v>
       </c>
-      <c r="V23">
-        <v>216.518624060873</v>
-      </c>
-      <c r="W23">
-        <v>0.3307857321497283</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2192,12 +2060,6 @@
       <c r="U24">
         <v>904.613314504315</v>
       </c>
-      <c r="V24">
-        <v>25.5776046228046</v>
-      </c>
-      <c r="W24">
-        <v>0.02827462763669349</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -2267,12 +2129,6 @@
       <c r="U25">
         <v>1114.40975053711</v>
       </c>
-      <c r="V25">
-        <v>203.387700996366</v>
-      </c>
-      <c r="W25">
-        <v>0.1825071082681568</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -2293,7 +2149,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.4989858488386501</v>
+        <v>0.49898584883865</v>
       </c>
       <c r="G26">
         <v>0.1333572810607799</v>
@@ -2342,12 +2198,6 @@
       <c r="U26">
         <v>2061.55454979177</v>
       </c>
-      <c r="V26">
-        <v>1150.79071118603</v>
-      </c>
-      <c r="W26">
-        <v>0.5582150185171025</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2417,12 +2267,6 @@
       <c r="U27">
         <v>935.914621551365</v>
       </c>
-      <c r="V27">
-        <v>732.6713354986561</v>
-      </c>
-      <c r="W27">
-        <v>0.7828399285868465</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -2472,7 +2316,7 @@
         <v>300.4314827</v>
       </c>
       <c r="O28">
-        <v>81.75541060000001</v>
+        <v>81.7554106</v>
       </c>
       <c r="P28">
         <v>391.476963532</v>
@@ -2492,12 +2336,6 @@
       <c r="U28">
         <v>76.10531024705131</v>
       </c>
-      <c r="V28">
-        <v>1.55158105697999</v>
-      </c>
-      <c r="W28">
-        <v>0.0203872903473264</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -2567,12 +2405,6 @@
       <c r="U29">
         <v>267.465293838351</v>
       </c>
-      <c r="V29">
-        <v>23.867744232809</v>
-      </c>
-      <c r="W29">
-        <v>0.08923678990379229</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -2642,12 +2474,6 @@
       <c r="U30">
         <v>46.1698853814811</v>
       </c>
-      <c r="V30">
-        <v>3.36930174087691</v>
-      </c>
-      <c r="W30">
-        <v>0.07297617728607896</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -2717,12 +2543,6 @@
       <c r="U31">
         <v>112.061441766011</v>
       </c>
-      <c r="V31">
-        <v>0.875859706780676</v>
-      </c>
-      <c r="W31">
-        <v>0.007815888257171525</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2792,12 +2612,6 @@
       <c r="U32">
         <v>353.215713255055</v>
       </c>
-      <c r="V32">
-        <v>63.0712366821742</v>
-      </c>
-      <c r="W32">
-        <v>0.1785629413282382</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2818,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.3463615106485301</v>
+        <v>0.34636151064853</v>
       </c>
       <c r="G33">
         <v>0.2604265906830399</v>
@@ -2867,12 +2681,6 @@
       <c r="U33">
         <v>971.921638499177</v>
       </c>
-      <c r="V33">
-        <v>93.5456671836892</v>
-      </c>
-      <c r="W33">
-        <v>0.09624815775080453</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2907,7 +2715,7 @@
         </is>
       </c>
       <c r="J34">
-        <v>81.07911629077771</v>
+        <v>81.0791162907777</v>
       </c>
       <c r="K34">
         <v>56.9906059662921</v>
@@ -2942,12 +2750,6 @@
       <c r="U34">
         <v>163.155126523718</v>
       </c>
-      <c r="V34">
-        <v>23.8122368909462</v>
-      </c>
-      <c r="W34">
-        <v>0.1459484442708247</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -3017,12 +2819,6 @@
       <c r="U35">
         <v>1186.39222544876</v>
       </c>
-      <c r="V35">
-        <v>42.4252092973921</v>
-      </c>
-      <c r="W35">
-        <v>0.03575985107399411</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -3092,12 +2888,6 @@
       <c r="U36">
         <v>1296.90289320425</v>
       </c>
-      <c r="V36">
-        <v>278.25704010497</v>
-      </c>
-      <c r="W36">
-        <v>0.2145550307297735</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -3167,12 +2957,6 @@
       <c r="U37">
         <v>123.341266807282</v>
       </c>
-      <c r="V37">
-        <v>0.0336402845050721</v>
-      </c>
-      <c r="W37">
-        <v>0.0002727415193297334</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -3242,12 +3026,6 @@
       <c r="U38">
         <v>146.010862409151</v>
       </c>
-      <c r="V38">
-        <v>0.0019616743683801</v>
-      </c>
-      <c r="W38">
-        <v>1.343512623658851e-005</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -3291,7 +3069,7 @@
         <v>2282.47190375104</v>
       </c>
       <c r="M39">
-        <v>0.553842339519723</v>
+        <v>0.5538423395197229</v>
       </c>
       <c r="N39">
         <v>2626.936975</v>
@@ -3317,12 +3095,6 @@
       <c r="U39">
         <v>2035.93077044365</v>
       </c>
-      <c r="V39">
-        <v>56.9736436276051</v>
-      </c>
-      <c r="W39">
-        <v>0.02798407708882457</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -3392,12 +3164,6 @@
       <c r="U40">
         <v>458.108823622494</v>
       </c>
-      <c r="V40">
-        <v>211.103218811353</v>
-      </c>
-      <c r="W40">
-        <v>0.4608145661593134</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -3467,12 +3233,6 @@
       <c r="U41">
         <v>191.553235508233</v>
       </c>
-      <c r="V41">
-        <v>3.31109746919591</v>
-      </c>
-      <c r="W41">
-        <v>0.01728552096972331</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3542,12 +3302,6 @@
       <c r="U42">
         <v>278.932602432352</v>
       </c>
-      <c r="V42">
-        <v>16.9878055902529</v>
-      </c>
-      <c r="W42">
-        <v>0.06090290429342286</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3614,12 +3368,6 @@
       <c r="U43">
         <v>0.224455119243138</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -3640,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.31673416161244</v>
+        <v>0.3167341616124399</v>
       </c>
       <c r="G44">
         <v>0.2678646060691701</v>
@@ -3689,12 +3437,6 @@
       <c r="U44">
         <v>1652.38305527412</v>
       </c>
-      <c r="V44">
-        <v>489.084469036776</v>
-      </c>
-      <c r="W44">
-        <v>0.2959873423270127</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -3764,12 +3506,6 @@
       <c r="U45">
         <v>672.875718603951</v>
       </c>
-      <c r="V45">
-        <v>100.158749526227</v>
-      </c>
-      <c r="W45">
-        <v>0.1488517816247425</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -3839,12 +3575,6 @@
       <c r="U46">
         <v>1223.60364109902</v>
       </c>
-      <c r="V46">
-        <v>120.691466337088</v>
-      </c>
-      <c r="W46">
-        <v>0.09863607975919798</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -3914,12 +3644,6 @@
       <c r="U47">
         <v>199.321397873921</v>
       </c>
-      <c r="V47">
-        <v>14.1072814334422</v>
-      </c>
-      <c r="W47">
-        <v>0.07077655276311898</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -3989,12 +3713,6 @@
       <c r="U48">
         <v>241.645303212333</v>
       </c>
-      <c r="V48">
-        <v>6.67207006012065</v>
-      </c>
-      <c r="W48">
-        <v>0.02761100659282387</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -4064,12 +3782,6 @@
       <c r="U49">
         <v>325.25576901488</v>
       </c>
-      <c r="V49">
-        <v>3.24182830753426</v>
-      </c>
-      <c r="W49">
-        <v>0.009967012475606394</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -4113,7 +3825,7 @@
         <v>2458.8826838393</v>
       </c>
       <c r="M50">
-        <v>0.5391045083161578</v>
+        <v>0.5391045083161577</v>
       </c>
       <c r="N50">
         <v>2929.020778</v>
@@ -4139,12 +3851,6 @@
       <c r="U50">
         <v>3892.95679497106</v>
       </c>
-      <c r="V50">
-        <v>422.444112837063</v>
-      </c>
-      <c r="W50">
-        <v>0.1085149759131101</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -4214,12 +3920,6 @@
       <c r="U51">
         <v>1592.95952295139</v>
       </c>
-      <c r="V51">
-        <v>514.289713536559</v>
-      </c>
-      <c r="W51">
-        <v>0.3228517147652928</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -4246,7 +3946,7 @@
         <v>0.3372792521831101</v>
       </c>
       <c r="H52">
-        <v>0.5567646060204901</v>
+        <v>0.55676460602049</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -4289,12 +3989,6 @@
       <c r="U52">
         <v>175.00181093028</v>
       </c>
-      <c r="V52">
-        <v>92.0586285063746</v>
-      </c>
-      <c r="W52">
-        <v>0.5260438621578059</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -4364,12 +4058,6 @@
       <c r="U53">
         <v>117.849420978742</v>
       </c>
-      <c r="V53">
-        <v>5.39957886363349</v>
-      </c>
-      <c r="W53">
-        <v>0.04581761046248569</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -4439,12 +4127,6 @@
       <c r="U54">
         <v>387.939385760122</v>
       </c>
-      <c r="V54">
-        <v>50.2532341259779</v>
-      </c>
-      <c r="W54">
-        <v>0.1295388815124109</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -4514,12 +4196,6 @@
       <c r="U55">
         <v>298.160522916886</v>
       </c>
-      <c r="V55">
-        <v>133.952188390387</v>
-      </c>
-      <c r="W55">
-        <v>0.4492619850540273</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -4560,7 +4236,7 @@
         <v>495.418802537454</v>
       </c>
       <c r="L56">
-        <v>718.504255851761</v>
+        <v>718.5042558517609</v>
       </c>
       <c r="M56">
         <v>0.5045776406048548</v>
@@ -4589,12 +4265,6 @@
       <c r="U56">
         <v>1764.10031326797</v>
       </c>
-      <c r="V56">
-        <v>44.0757076475526</v>
-      </c>
-      <c r="W56">
-        <v>0.02498480801576583</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -4664,12 +4334,6 @@
       <c r="U57">
         <v>103.704596952089</v>
       </c>
-      <c r="V57">
-        <v>1.29350339201083</v>
-      </c>
-      <c r="W57">
-        <v>0.01247296098752905</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -4696,7 +4360,7 @@
         <v>0.2790012145184599</v>
       </c>
       <c r="H58">
-        <v>0.5270961224898501</v>
+        <v>0.52709612248985</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4739,12 +4403,6 @@
       <c r="U58">
         <v>23.8681590336089</v>
       </c>
-      <c r="V58">
-        <v>4.08618095955532</v>
-      </c>
-      <c r="W58">
-        <v>0.1711979945249043</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -4765,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.2939014711689501</v>
+        <v>0.29390147116895</v>
       </c>
       <c r="G59">
         <v>0.2231871187291399</v>
@@ -4814,12 +4472,6 @@
       <c r="U59">
         <v>42.825465957425</v>
       </c>
-      <c r="V59">
-        <v>1.30254000758116</v>
-      </c>
-      <c r="W59">
-        <v>0.03041508080439993</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -4878,7 +4530,7 @@
         <v>20.09865591</v>
       </c>
       <c r="R60">
-        <v>0.7982802932839354</v>
+        <v>0.7982802932839353</v>
       </c>
       <c r="S60">
         <v>1859.323849022</v>
@@ -4889,12 +4541,6 @@
       <c r="U60">
         <v>55.3228024369543</v>
       </c>
-      <c r="V60">
-        <v>2.73946160057495</v>
-      </c>
-      <c r="W60">
-        <v>0.0495177662718159</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -4964,12 +4610,6 @@
       <c r="U61">
         <v>21.1690170599774</v>
       </c>
-      <c r="V61">
-        <v>1.32771018124768</v>
-      </c>
-      <c r="W61">
-        <v>0.06271950074422102</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -5039,12 +4679,6 @@
       <c r="U62">
         <v>61.3441024014477</v>
       </c>
-      <c r="V62">
-        <v>6.157299346844</v>
-      </c>
-      <c r="W62">
-        <v>0.1003731264425297</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -5114,12 +4748,6 @@
       <c r="U63">
         <v>47.7177902620486</v>
       </c>
-      <c r="V63">
-        <v>4.17016896900864</v>
-      </c>
-      <c r="W63">
-        <v>0.08739233200254248</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -5189,12 +4817,6 @@
       <c r="U64">
         <v>634.119907934289</v>
       </c>
-      <c r="V64">
-        <v>60.4955346457863</v>
-      </c>
-      <c r="W64">
-        <v>0.09540078128576146</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -5218,7 +4840,7 @@
         <v>0.20527727829534</v>
       </c>
       <c r="G65">
-        <v>0.3021415126052101</v>
+        <v>0.30214151260521</v>
       </c>
       <c r="H65">
         <v>0.5074187909005501</v>
@@ -5264,12 +4886,6 @@
       <c r="U65">
         <v>98.0786126712752</v>
       </c>
-      <c r="V65">
-        <v>4.22995351928567</v>
-      </c>
-      <c r="W65">
-        <v>0.04312819486408293</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -5339,12 +4955,6 @@
       <c r="U66">
         <v>335.598479433866</v>
       </c>
-      <c r="V66">
-        <v>12.5761151733403</v>
-      </c>
-      <c r="W66">
-        <v>0.03747369533543607</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -5414,12 +5024,6 @@
       <c r="U67">
         <v>11.1638577959829</v>
       </c>
-      <c r="V67">
-        <v>2.20304510292386</v>
-      </c>
-      <c r="W67">
-        <v>0.1973372595015124</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -5489,12 +5093,6 @@
       <c r="U68">
         <v>20.8962265089781</v>
       </c>
-      <c r="V68">
-        <v>7.53555533699257</v>
-      </c>
-      <c r="W68">
-        <v>0.3606179964480624</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -5564,12 +5162,6 @@
       <c r="U69">
         <v>213.370888423344</v>
       </c>
-      <c r="V69">
-        <v>6.39957999921037</v>
-      </c>
-      <c r="W69">
-        <v>0.02999275133781661</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -5639,12 +5231,6 @@
       <c r="U70">
         <v>65.3571123052342</v>
       </c>
-      <c r="V70">
-        <v>3.77094866060397</v>
-      </c>
-      <c r="W70">
-        <v>0.057697602106297</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -5712,13 +5298,7 @@
         <v>70</v>
       </c>
       <c r="U71">
-        <v>824.064060355099</v>
-      </c>
-      <c r="V71">
-        <v>45.2533585233007</v>
-      </c>
-      <c r="W71">
-        <v>0.05491485516769229</v>
+        <v>824.0640603550989</v>
       </c>
     </row>
     <row r="72">
@@ -5789,12 +5369,6 @@
       <c r="U72">
         <v>1247.20016185829</v>
       </c>
-      <c r="V72">
-        <v>75.8393170901816</v>
-      </c>
-      <c r="W72">
-        <v>0.06080765494544464</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -5821,7 +5395,7 @@
         <v>0.1127221776826499</v>
       </c>
       <c r="H73">
-        <v>0.49186409193246</v>
+        <v>0.4918640919324599</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5864,12 +5438,6 @@
       <c r="U73">
         <v>1299.56937278561</v>
       </c>
-      <c r="V73">
-        <v>172.351790267526</v>
-      </c>
-      <c r="W73">
-        <v>0.1326222315458945</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -5893,7 +5461,7 @@
         <v>0.1884962878299801</v>
       </c>
       <c r="G74">
-        <v>0.2964939879972</v>
+        <v>0.2964939879971999</v>
       </c>
       <c r="H74">
         <v>0.48499027582718</v>
@@ -5939,12 +5507,6 @@
       <c r="U74">
         <v>519.66423778525</v>
       </c>
-      <c r="V74">
-        <v>15.4853273722304</v>
-      </c>
-      <c r="W74">
-        <v>0.02979871664486113</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -6014,12 +5576,6 @@
       <c r="U75">
         <v>89.8269601952933</v>
       </c>
-      <c r="V75">
-        <v>1.94359314644188</v>
-      </c>
-      <c r="W75">
-        <v>0.02163708025092136</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -6063,7 +5619,7 @@
         <v>517.00387954128</v>
       </c>
       <c r="M76">
-        <v>0.4861019499663316</v>
+        <v>0.4861019499663315</v>
       </c>
       <c r="N76">
         <v>993.1493612</v>
@@ -6089,12 +5645,6 @@
       <c r="U76">
         <v>1244.17729401366</v>
       </c>
-      <c r="V76">
-        <v>164.522020639229</v>
-      </c>
-      <c r="W76">
-        <v>0.1322335823285188</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -6115,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0.2155175053660901</v>
+        <v>0.21551750536609</v>
       </c>
       <c r="G77">
         <v>0.2538259039939899</v>
@@ -6164,12 +5714,6 @@
       <c r="U77">
         <v>436.874081626632</v>
       </c>
-      <c r="V77">
-        <v>6.29575470180408</v>
-      </c>
-      <c r="W77">
-        <v>0.01441091373139562</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -6239,12 +5783,6 @@
       <c r="U78">
         <v>59.8902260427848</v>
       </c>
-      <c r="V78">
-        <v>4.55948483303636</v>
-      </c>
-      <c r="W78">
-        <v>0.07613070002071996</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -6314,12 +5852,6 @@
       <c r="U79">
         <v>268.941803959992</v>
       </c>
-      <c r="V79">
-        <v>88.5256466323131</v>
-      </c>
-      <c r="W79">
-        <v>0.3291628349658956</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -6389,12 +5921,6 @@
       <c r="U80">
         <v>419.588439459392</v>
       </c>
-      <c r="V80">
-        <v>11.9963615695401</v>
-      </c>
-      <c r="W80">
-        <v>0.02859078192191497</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -6464,12 +5990,6 @@
       <c r="U81">
         <v>52.6017530521307</v>
       </c>
-      <c r="V81">
-        <v>9.889095960966371</v>
-      </c>
-      <c r="W81">
-        <v>0.1879993609940306</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -6519,7 +6039,7 @@
         <v>868.0427584</v>
       </c>
       <c r="O82">
-        <v>661.2263681</v>
+        <v>661.2263680999999</v>
       </c>
       <c r="P82">
         <v>1558.27739987</v>
@@ -6537,13 +6057,7 @@
         <v>81</v>
       </c>
       <c r="U82">
-        <v>607.8992730194181</v>
-      </c>
-      <c r="V82">
-        <v>39.4919423457961</v>
-      </c>
-      <c r="W82">
-        <v>0.06496461518968556</v>
+        <v>607.899273019418</v>
       </c>
     </row>
     <row r="83">
@@ -6614,12 +6128,6 @@
       <c r="U83">
         <v>99.9249392395616</v>
       </c>
-      <c r="V83">
-        <v>3.50901611204291</v>
-      </c>
-      <c r="W83">
-        <v>0.03511651984726596</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -6689,12 +6197,6 @@
       <c r="U84">
         <v>605.063106893335</v>
       </c>
-      <c r="V84">
-        <v>5.11054302963615</v>
-      </c>
-      <c r="W84">
-        <v>0.008446297537253539</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -6744,7 +6246,7 @@
         <v>297.9796387</v>
       </c>
       <c r="O85">
-        <v>609.2580264</v>
+        <v>609.2580263999999</v>
       </c>
       <c r="P85">
         <v>947.17047602</v>
@@ -6764,12 +6266,6 @@
       <c r="U85">
         <v>445.837356999608</v>
       </c>
-      <c r="V85">
-        <v>112.603861691286</v>
-      </c>
-      <c r="W85">
-        <v>0.2525671299710872</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -6822,7 +6318,7 @@
         <v>505.1830209</v>
       </c>
       <c r="P86">
-        <v>926.84461081</v>
+        <v>926.8446108099999</v>
       </c>
       <c r="Q86">
         <v>18.25572731</v>
@@ -6839,12 +6335,6 @@
       <c r="U86">
         <v>493.423353439735</v>
       </c>
-      <c r="V86">
-        <v>13.0239751779733</v>
-      </c>
-      <c r="W86">
-        <v>0.02639513328094634</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -6914,12 +6404,6 @@
       <c r="U87">
         <v>19.2313642505789</v>
       </c>
-      <c r="V87">
-        <v>0.9167191751562001</v>
-      </c>
-      <c r="W87">
-        <v>0.04766792221350626</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -6989,12 +6473,6 @@
       <c r="U88">
         <v>383.484635959072</v>
       </c>
-      <c r="V88">
-        <v>14.7706310446208</v>
-      </c>
-      <c r="W88">
-        <v>0.03851687827774466</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -7064,12 +6542,6 @@
       <c r="U89">
         <v>10.1058395588925</v>
       </c>
-      <c r="V89">
-        <v>0.877371960318016</v>
-      </c>
-      <c r="W89">
-        <v>0.08681831481739527</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -7139,12 +6611,6 @@
       <c r="U90">
         <v>122.185285051981</v>
       </c>
-      <c r="V90">
-        <v>26.9159106623716</v>
-      </c>
-      <c r="W90">
-        <v>0.2202876610789984</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -7214,12 +6680,6 @@
       <c r="U91">
         <v>89.7271411956239</v>
       </c>
-      <c r="V91">
-        <v>0.677630671334743</v>
-      </c>
-      <c r="W91">
-        <v>0.007552125948795879</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -7289,12 +6749,6 @@
       <c r="U92">
         <v>847.132340402935</v>
       </c>
-      <c r="V92">
-        <v>19.2682986835598</v>
-      </c>
-      <c r="W92">
-        <v>0.02274532297326166</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -7364,12 +6818,6 @@
       <c r="U93">
         <v>1731.04662799449</v>
       </c>
-      <c r="V93">
-        <v>24.8997127626647</v>
-      </c>
-      <c r="W93">
-        <v>0.01438419529548568</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -7439,12 +6887,6 @@
       <c r="U94">
         <v>320.130193237579</v>
       </c>
-      <c r="V94">
-        <v>19.8166607407209</v>
-      </c>
-      <c r="W94">
-        <v>0.06190187979555652</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -7514,12 +6956,6 @@
       <c r="U95">
         <v>166.968851406326</v>
       </c>
-      <c r="V95">
-        <v>0.110491004257177</v>
-      </c>
-      <c r="W95">
-        <v>0.0006617462079097155</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -7589,12 +7025,6 @@
       <c r="U96">
         <v>86.1306652160434</v>
       </c>
-      <c r="V96">
-        <v>0.484392758325954</v>
-      </c>
-      <c r="W96">
-        <v>0.00562392914429421</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -7664,12 +7094,6 @@
       <c r="U97">
         <v>321.368634307424</v>
       </c>
-      <c r="V97">
-        <v>9.54753715136796</v>
-      </c>
-      <c r="W97">
-        <v>0.02970898878150848</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -7690,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.17206282968253</v>
+        <v>0.1720628296825299</v>
       </c>
       <c r="G98">
         <v>0.02730082226176012</v>
@@ -7739,9 +7163,6 @@
       <c r="U98">
         <v>0</v>
       </c>
-      <c r="V98">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -7803,9 +7224,6 @@
         <v>98</v>
       </c>
       <c r="U99">
-        <v>0</v>
-      </c>
-      <c r="V99">
         <v>0</v>
       </c>
     </row>

--- a/outputdata/Multipliers2016.xlsx
+++ b/outputdata/Multipliers2016.xlsx
@@ -542,6 +542,12 @@
       <c r="U2">
         <v>199.344655168777</v>
       </c>
+      <c r="V2">
+        <v>0.011457915908775</v>
+      </c>
+      <c r="W2">
+        <v>5.747791882894502e-005</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -565,7 +571,7 @@
         <v>0.71760323413257</v>
       </c>
       <c r="G3">
-        <v>0.18419746355841</v>
+        <v>0.1841974635584101</v>
       </c>
       <c r="H3">
         <v>0.90180069769098</v>
@@ -611,6 +617,12 @@
       <c r="U3">
         <v>63.5439024216319</v>
       </c>
+      <c r="V3">
+        <v>7.67874478448478</v>
+      </c>
+      <c r="W3">
+        <v>0.1208415676697682</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -680,6 +692,12 @@
       <c r="U4">
         <v>141.527597517668</v>
       </c>
+      <c r="V4">
+        <v>34.1131107474715</v>
+      </c>
+      <c r="W4">
+        <v>0.2410350443715608</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -749,6 +767,12 @@
       <c r="U5">
         <v>5354.25622923858</v>
       </c>
+      <c r="V5">
+        <v>3371.32033313202</v>
+      </c>
+      <c r="W5">
+        <v>0.629652408997888</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -818,6 +842,12 @@
       <c r="U6">
         <v>204.424427054976</v>
       </c>
+      <c r="V6">
+        <v>117.062697978092</v>
+      </c>
+      <c r="W6">
+        <v>0.5726453519500888</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -887,6 +917,12 @@
       <c r="U7">
         <v>7550.81833555884</v>
       </c>
+      <c r="V7">
+        <v>3876.70116931456</v>
+      </c>
+      <c r="W7">
+        <v>0.5134147051397235</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -956,6 +992,12 @@
       <c r="U8">
         <v>1027.4443636161</v>
       </c>
+      <c r="V8">
+        <v>386.821774662692</v>
+      </c>
+      <c r="W8">
+        <v>0.3764892663397064</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1025,6 +1067,12 @@
       <c r="U9">
         <v>618.323726303458</v>
       </c>
+      <c r="V9">
+        <v>336.615825138605</v>
+      </c>
+      <c r="W9">
+        <v>0.5444006283747266</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1051,7 +1099,7 @@
         <v>0.2106552963338</v>
       </c>
       <c r="H10">
-        <v>0.7853061622083199</v>
+        <v>0.78530616220832</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1094,6 +1142,12 @@
       <c r="U10">
         <v>771.946779227193</v>
       </c>
+      <c r="V10">
+        <v>205.794612039348</v>
+      </c>
+      <c r="W10">
+        <v>0.2665917101764087</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1163,6 +1217,12 @@
       <c r="U11">
         <v>38.5638493896377</v>
       </c>
+      <c r="V11">
+        <v>0.540767301341995</v>
+      </c>
+      <c r="W11">
+        <v>0.01402264841038669</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1232,6 +1292,12 @@
       <c r="U12">
         <v>171.820803617171</v>
       </c>
+      <c r="V12">
+        <v>57.2988797849014</v>
+      </c>
+      <c r="W12">
+        <v>0.333480455094177</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1301,6 +1367,12 @@
       <c r="U13">
         <v>262.122090160123</v>
       </c>
+      <c r="V13">
+        <v>12.1395111716711</v>
+      </c>
+      <c r="W13">
+        <v>0.04631243083807021</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1370,6 +1442,12 @@
       <c r="U14">
         <v>61.9494856665878</v>
       </c>
+      <c r="V14">
+        <v>21.1684939654647</v>
+      </c>
+      <c r="W14">
+        <v>0.3417057258456279</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1439,6 +1517,12 @@
       <c r="U15">
         <v>189.960761269405</v>
       </c>
+      <c r="V15">
+        <v>2.31035955230974</v>
+      </c>
+      <c r="W15">
+        <v>0.01216229887093975</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1508,6 +1592,12 @@
       <c r="U16">
         <v>424.388304390291</v>
       </c>
+      <c r="V16">
+        <v>62.843325775013</v>
+      </c>
+      <c r="W16">
+        <v>0.1480797777056994</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1577,6 +1667,12 @@
       <c r="U17">
         <v>1844.35229851711</v>
       </c>
+      <c r="V17">
+        <v>459.173064940302</v>
+      </c>
+      <c r="W17">
+        <v>0.2489616898623353</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1646,6 +1742,12 @@
       <c r="U18">
         <v>172.795108538789</v>
       </c>
+      <c r="V18">
+        <v>8.1985303829355</v>
+      </c>
+      <c r="W18">
+        <v>0.04744654204777501</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1715,6 +1817,12 @@
       <c r="U19">
         <v>69.04386798517</v>
       </c>
+      <c r="V19">
+        <v>30.7020807369264</v>
+      </c>
+      <c r="W19">
+        <v>0.444674981759726</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1776,7 +1884,7 @@
         <v>0.7907012087067099</v>
       </c>
       <c r="S20">
-        <v>94.251888648</v>
+        <v>94.25188864800001</v>
       </c>
       <c r="T20">
         <v>19</v>
@@ -1784,6 +1892,12 @@
       <c r="U20">
         <v>23.8311554208065</v>
       </c>
+      <c r="V20">
+        <v>1.51311715625424</v>
+      </c>
+      <c r="W20">
+        <v>0.06349323520139388</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1853,6 +1967,12 @@
       <c r="U21">
         <v>174.419575668149</v>
       </c>
+      <c r="V21">
+        <v>4.4865429810205</v>
+      </c>
+      <c r="W21">
+        <v>0.02572270322200878</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1922,6 +2042,12 @@
       <c r="U22">
         <v>17.7140732481128</v>
       </c>
+      <c r="V22">
+        <v>0.401880717129283</v>
+      </c>
+      <c r="W22">
+        <v>0.02268708678689121</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1948,7 +2074,7 @@
         <v>0.2176491579519</v>
       </c>
       <c r="H23">
-        <v>0.6388557028202499</v>
+        <v>0.63885570282025</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1991,6 +2117,12 @@
       <c r="U23">
         <v>654.558534474114</v>
       </c>
+      <c r="V23">
+        <v>216.518624060873</v>
+      </c>
+      <c r="W23">
+        <v>0.3307857321497283</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2060,6 +2192,12 @@
       <c r="U24">
         <v>904.613314504315</v>
       </c>
+      <c r="V24">
+        <v>25.5776046228046</v>
+      </c>
+      <c r="W24">
+        <v>0.02827462763669349</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -2129,6 +2267,12 @@
       <c r="U25">
         <v>1114.40975053711</v>
       </c>
+      <c r="V25">
+        <v>203.387700996366</v>
+      </c>
+      <c r="W25">
+        <v>0.1825071082681568</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -2149,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.49898584883865</v>
+        <v>0.4989858488386501</v>
       </c>
       <c r="G26">
         <v>0.1333572810607799</v>
@@ -2198,6 +2342,12 @@
       <c r="U26">
         <v>2061.55454979177</v>
       </c>
+      <c r="V26">
+        <v>1150.79071118603</v>
+      </c>
+      <c r="W26">
+        <v>0.5582150185171025</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2267,6 +2417,12 @@
       <c r="U27">
         <v>935.914621551365</v>
       </c>
+      <c r="V27">
+        <v>732.6713354986561</v>
+      </c>
+      <c r="W27">
+        <v>0.7828399285868465</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -2316,7 +2472,7 @@
         <v>300.4314827</v>
       </c>
       <c r="O28">
-        <v>81.7554106</v>
+        <v>81.75541060000001</v>
       </c>
       <c r="P28">
         <v>391.476963532</v>
@@ -2336,6 +2492,12 @@
       <c r="U28">
         <v>76.10531024705131</v>
       </c>
+      <c r="V28">
+        <v>1.55158105697999</v>
+      </c>
+      <c r="W28">
+        <v>0.0203872903473264</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -2405,6 +2567,12 @@
       <c r="U29">
         <v>267.465293838351</v>
       </c>
+      <c r="V29">
+        <v>23.867744232809</v>
+      </c>
+      <c r="W29">
+        <v>0.08923678990379229</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -2474,6 +2642,12 @@
       <c r="U30">
         <v>46.1698853814811</v>
       </c>
+      <c r="V30">
+        <v>3.36930174087691</v>
+      </c>
+      <c r="W30">
+        <v>0.07297617728607896</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -2543,6 +2717,12 @@
       <c r="U31">
         <v>112.061441766011</v>
       </c>
+      <c r="V31">
+        <v>0.875859706780676</v>
+      </c>
+      <c r="W31">
+        <v>0.007815888257171525</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2612,6 +2792,12 @@
       <c r="U32">
         <v>353.215713255055</v>
       </c>
+      <c r="V32">
+        <v>63.0712366821742</v>
+      </c>
+      <c r="W32">
+        <v>0.1785629413282382</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2632,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0.34636151064853</v>
+        <v>0.3463615106485301</v>
       </c>
       <c r="G33">
         <v>0.2604265906830399</v>
@@ -2681,6 +2867,12 @@
       <c r="U33">
         <v>971.921638499177</v>
       </c>
+      <c r="V33">
+        <v>93.5456671836892</v>
+      </c>
+      <c r="W33">
+        <v>0.09624815775080453</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2715,7 +2907,7 @@
         </is>
       </c>
       <c r="J34">
-        <v>81.0791162907777</v>
+        <v>81.07911629077771</v>
       </c>
       <c r="K34">
         <v>56.9906059662921</v>
@@ -2750,6 +2942,12 @@
       <c r="U34">
         <v>163.155126523718</v>
       </c>
+      <c r="V34">
+        <v>23.8122368909462</v>
+      </c>
+      <c r="W34">
+        <v>0.1459484442708247</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2819,6 +3017,12 @@
       <c r="U35">
         <v>1186.39222544876</v>
       </c>
+      <c r="V35">
+        <v>42.4252092973921</v>
+      </c>
+      <c r="W35">
+        <v>0.03575985107399411</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2888,6 +3092,12 @@
       <c r="U36">
         <v>1296.90289320425</v>
       </c>
+      <c r="V36">
+        <v>278.25704010497</v>
+      </c>
+      <c r="W36">
+        <v>0.2145550307297735</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2957,6 +3167,12 @@
       <c r="U37">
         <v>123.341266807282</v>
       </c>
+      <c r="V37">
+        <v>0.0336402845050721</v>
+      </c>
+      <c r="W37">
+        <v>0.0002727415193297334</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -3026,6 +3242,12 @@
       <c r="U38">
         <v>146.010862409151</v>
       </c>
+      <c r="V38">
+        <v>0.0019616743683801</v>
+      </c>
+      <c r="W38">
+        <v>1.343512623658851e-005</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -3069,7 +3291,7 @@
         <v>2282.47190375104</v>
       </c>
       <c r="M39">
-        <v>0.5538423395197229</v>
+        <v>0.553842339519723</v>
       </c>
       <c r="N39">
         <v>2626.936975</v>
@@ -3095,6 +3317,12 @@
       <c r="U39">
         <v>2035.93077044365</v>
       </c>
+      <c r="V39">
+        <v>56.9736436276051</v>
+      </c>
+      <c r="W39">
+        <v>0.02798407708882457</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -3164,6 +3392,12 @@
       <c r="U40">
         <v>458.108823622494</v>
       </c>
+      <c r="V40">
+        <v>211.103218811353</v>
+      </c>
+      <c r="W40">
+        <v>0.4608145661593134</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -3233,6 +3467,12 @@
       <c r="U41">
         <v>191.553235508233</v>
       </c>
+      <c r="V41">
+        <v>3.31109746919591</v>
+      </c>
+      <c r="W41">
+        <v>0.01728552096972331</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3302,6 +3542,12 @@
       <c r="U42">
         <v>278.932602432352</v>
       </c>
+      <c r="V42">
+        <v>16.9878055902529</v>
+      </c>
+      <c r="W42">
+        <v>0.06090290429342286</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3368,6 +3614,12 @@
       <c r="U43">
         <v>0.224455119243138</v>
       </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -3388,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>0.3167341616124399</v>
+        <v>0.31673416161244</v>
       </c>
       <c r="G44">
         <v>0.2678646060691701</v>
@@ -3437,6 +3689,12 @@
       <c r="U44">
         <v>1652.38305527412</v>
       </c>
+      <c r="V44">
+        <v>489.084469036776</v>
+      </c>
+      <c r="W44">
+        <v>0.2959873423270127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -3506,6 +3764,12 @@
       <c r="U45">
         <v>672.875718603951</v>
       </c>
+      <c r="V45">
+        <v>100.158749526227</v>
+      </c>
+      <c r="W45">
+        <v>0.1488517816247425</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -3575,6 +3839,12 @@
       <c r="U46">
         <v>1223.60364109902</v>
       </c>
+      <c r="V46">
+        <v>120.691466337088</v>
+      </c>
+      <c r="W46">
+        <v>0.09863607975919798</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -3644,6 +3914,12 @@
       <c r="U47">
         <v>199.321397873921</v>
       </c>
+      <c r="V47">
+        <v>14.1072814334422</v>
+      </c>
+      <c r="W47">
+        <v>0.07077655276311898</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -3713,6 +3989,12 @@
       <c r="U48">
         <v>241.645303212333</v>
       </c>
+      <c r="V48">
+        <v>6.67207006012065</v>
+      </c>
+      <c r="W48">
+        <v>0.02761100659282387</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -3782,6 +4064,12 @@
       <c r="U49">
         <v>325.25576901488</v>
       </c>
+      <c r="V49">
+        <v>3.24182830753426</v>
+      </c>
+      <c r="W49">
+        <v>0.009967012475606394</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -3825,7 +4113,7 @@
         <v>2458.8826838393</v>
       </c>
       <c r="M50">
-        <v>0.5391045083161577</v>
+        <v>0.5391045083161578</v>
       </c>
       <c r="N50">
         <v>2929.020778</v>
@@ -3851,6 +4139,12 @@
       <c r="U50">
         <v>3892.95679497106</v>
       </c>
+      <c r="V50">
+        <v>422.444112837063</v>
+      </c>
+      <c r="W50">
+        <v>0.1085149759131101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -3920,6 +4214,12 @@
       <c r="U51">
         <v>1592.95952295139</v>
       </c>
+      <c r="V51">
+        <v>514.289713536559</v>
+      </c>
+      <c r="W51">
+        <v>0.3228517147652928</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3946,7 +4246,7 @@
         <v>0.3372792521831101</v>
       </c>
       <c r="H52">
-        <v>0.55676460602049</v>
+        <v>0.5567646060204901</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3989,6 +4289,12 @@
       <c r="U52">
         <v>175.00181093028</v>
       </c>
+      <c r="V52">
+        <v>92.0586285063746</v>
+      </c>
+      <c r="W52">
+        <v>0.5260438621578059</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -4058,6 +4364,12 @@
       <c r="U53">
         <v>117.849420978742</v>
       </c>
+      <c r="V53">
+        <v>5.39957886363349</v>
+      </c>
+      <c r="W53">
+        <v>0.04581761046248569</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -4127,6 +4439,12 @@
       <c r="U54">
         <v>387.939385760122</v>
       </c>
+      <c r="V54">
+        <v>50.2532341259779</v>
+      </c>
+      <c r="W54">
+        <v>0.1295388815124109</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -4196,6 +4514,12 @@
       <c r="U55">
         <v>298.160522916886</v>
       </c>
+      <c r="V55">
+        <v>133.952188390387</v>
+      </c>
+      <c r="W55">
+        <v>0.4492619850540273</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -4236,7 +4560,7 @@
         <v>495.418802537454</v>
       </c>
       <c r="L56">
-        <v>718.5042558517609</v>
+        <v>718.504255851761</v>
       </c>
       <c r="M56">
         <v>0.5045776406048548</v>
@@ -4265,6 +4589,12 @@
       <c r="U56">
         <v>1764.10031326797</v>
       </c>
+      <c r="V56">
+        <v>44.0757076475526</v>
+      </c>
+      <c r="W56">
+        <v>0.02498480801576583</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -4334,6 +4664,12 @@
       <c r="U57">
         <v>103.704596952089</v>
       </c>
+      <c r="V57">
+        <v>1.29350339201083</v>
+      </c>
+      <c r="W57">
+        <v>0.01247296098752905</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -4360,7 +4696,7 @@
         <v>0.2790012145184599</v>
       </c>
       <c r="H58">
-        <v>0.52709612248985</v>
+        <v>0.5270961224898501</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -4403,6 +4739,12 @@
       <c r="U58">
         <v>23.8681590336089</v>
       </c>
+      <c r="V58">
+        <v>4.08618095955532</v>
+      </c>
+      <c r="W58">
+        <v>0.1711979945249043</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -4423,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0.29390147116895</v>
+        <v>0.2939014711689501</v>
       </c>
       <c r="G59">
         <v>0.2231871187291399</v>
@@ -4472,6 +4814,12 @@
       <c r="U59">
         <v>42.825465957425</v>
       </c>
+      <c r="V59">
+        <v>1.30254000758116</v>
+      </c>
+      <c r="W59">
+        <v>0.03041508080439993</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -4530,7 +4878,7 @@
         <v>20.09865591</v>
       </c>
       <c r="R60">
-        <v>0.7982802932839353</v>
+        <v>0.7982802932839354</v>
       </c>
       <c r="S60">
         <v>1859.323849022</v>
@@ -4541,6 +4889,12 @@
       <c r="U60">
         <v>55.3228024369543</v>
       </c>
+      <c r="V60">
+        <v>2.73946160057495</v>
+      </c>
+      <c r="W60">
+        <v>0.0495177662718159</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -4610,6 +4964,12 @@
       <c r="U61">
         <v>21.1690170599774</v>
       </c>
+      <c r="V61">
+        <v>1.32771018124768</v>
+      </c>
+      <c r="W61">
+        <v>0.06271950074422102</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -4679,6 +5039,12 @@
       <c r="U62">
         <v>61.3441024014477</v>
       </c>
+      <c r="V62">
+        <v>6.157299346844</v>
+      </c>
+      <c r="W62">
+        <v>0.1003731264425297</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -4748,6 +5114,12 @@
       <c r="U63">
         <v>47.7177902620486</v>
       </c>
+      <c r="V63">
+        <v>4.17016896900864</v>
+      </c>
+      <c r="W63">
+        <v>0.08739233200254248</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -4817,6 +5189,12 @@
       <c r="U64">
         <v>634.119907934289</v>
       </c>
+      <c r="V64">
+        <v>60.4955346457863</v>
+      </c>
+      <c r="W64">
+        <v>0.09540078128576146</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -4840,7 +5218,7 @@
         <v>0.20527727829534</v>
       </c>
       <c r="G65">
-        <v>0.30214151260521</v>
+        <v>0.3021415126052101</v>
       </c>
       <c r="H65">
         <v>0.5074187909005501</v>
@@ -4886,6 +5264,12 @@
       <c r="U65">
         <v>98.0786126712752</v>
       </c>
+      <c r="V65">
+        <v>4.22995351928567</v>
+      </c>
+      <c r="W65">
+        <v>0.04312819486408293</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -4955,6 +5339,12 @@
       <c r="U66">
         <v>335.598479433866</v>
       </c>
+      <c r="V66">
+        <v>12.5761151733403</v>
+      </c>
+      <c r="W66">
+        <v>0.03747369533543607</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -5024,6 +5414,12 @@
       <c r="U67">
         <v>11.1638577959829</v>
       </c>
+      <c r="V67">
+        <v>2.20304510292386</v>
+      </c>
+      <c r="W67">
+        <v>0.1973372595015124</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -5093,6 +5489,12 @@
       <c r="U68">
         <v>20.8962265089781</v>
       </c>
+      <c r="V68">
+        <v>7.53555533699257</v>
+      </c>
+      <c r="W68">
+        <v>0.3606179964480624</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -5162,6 +5564,12 @@
       <c r="U69">
         <v>213.370888423344</v>
       </c>
+      <c r="V69">
+        <v>6.39957999921037</v>
+      </c>
+      <c r="W69">
+        <v>0.02999275133781661</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -5231,6 +5639,12 @@
       <c r="U70">
         <v>65.3571123052342</v>
       </c>
+      <c r="V70">
+        <v>3.77094866060397</v>
+      </c>
+      <c r="W70">
+        <v>0.057697602106297</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -5298,7 +5712,13 @@
         <v>70</v>
       </c>
       <c r="U71">
-        <v>824.0640603550989</v>
+        <v>824.064060355099</v>
+      </c>
+      <c r="V71">
+        <v>45.2533585233007</v>
+      </c>
+      <c r="W71">
+        <v>0.05491485516769229</v>
       </c>
     </row>
     <row r="72">
@@ -5369,6 +5789,12 @@
       <c r="U72">
         <v>1247.20016185829</v>
       </c>
+      <c r="V72">
+        <v>75.8393170901816</v>
+      </c>
+      <c r="W72">
+        <v>0.06080765494544464</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -5395,7 +5821,7 @@
         <v>0.1127221776826499</v>
       </c>
       <c r="H73">
-        <v>0.4918640919324599</v>
+        <v>0.49186409193246</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -5438,6 +5864,12 @@
       <c r="U73">
         <v>1299.56937278561</v>
       </c>
+      <c r="V73">
+        <v>172.351790267526</v>
+      </c>
+      <c r="W73">
+        <v>0.1326222315458945</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -5461,7 +5893,7 @@
         <v>0.1884962878299801</v>
       </c>
       <c r="G74">
-        <v>0.2964939879971999</v>
+        <v>0.2964939879972</v>
       </c>
       <c r="H74">
         <v>0.48499027582718</v>
@@ -5507,6 +5939,12 @@
       <c r="U74">
         <v>519.66423778525</v>
       </c>
+      <c r="V74">
+        <v>15.4853273722304</v>
+      </c>
+      <c r="W74">
+        <v>0.02979871664486113</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -5576,6 +6014,12 @@
       <c r="U75">
         <v>89.8269601952933</v>
       </c>
+      <c r="V75">
+        <v>1.94359314644188</v>
+      </c>
+      <c r="W75">
+        <v>0.02163708025092136</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -5619,7 +6063,7 @@
         <v>517.00387954128</v>
       </c>
       <c r="M76">
-        <v>0.4861019499663315</v>
+        <v>0.4861019499663316</v>
       </c>
       <c r="N76">
         <v>993.1493612</v>
@@ -5645,6 +6089,12 @@
       <c r="U76">
         <v>1244.17729401366</v>
       </c>
+      <c r="V76">
+        <v>164.522020639229</v>
+      </c>
+      <c r="W76">
+        <v>0.1322335823285188</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -5665,7 +6115,7 @@
         <v>1</v>
       </c>
       <c r="F77">
-        <v>0.21551750536609</v>
+        <v>0.2155175053660901</v>
       </c>
       <c r="G77">
         <v>0.2538259039939899</v>
@@ -5714,6 +6164,12 @@
       <c r="U77">
         <v>436.874081626632</v>
       </c>
+      <c r="V77">
+        <v>6.29575470180408</v>
+      </c>
+      <c r="W77">
+        <v>0.01441091373139562</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -5783,6 +6239,12 @@
       <c r="U78">
         <v>59.8902260427848</v>
       </c>
+      <c r="V78">
+        <v>4.55948483303636</v>
+      </c>
+      <c r="W78">
+        <v>0.07613070002071996</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -5852,6 +6314,12 @@
       <c r="U79">
         <v>268.941803959992</v>
       </c>
+      <c r="V79">
+        <v>88.5256466323131</v>
+      </c>
+      <c r="W79">
+        <v>0.3291628349658956</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -5921,6 +6389,12 @@
       <c r="U80">
         <v>419.588439459392</v>
       </c>
+      <c r="V80">
+        <v>11.9963615695401</v>
+      </c>
+      <c r="W80">
+        <v>0.02859078192191497</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -5990,6 +6464,12 @@
       <c r="U81">
         <v>52.6017530521307</v>
       </c>
+      <c r="V81">
+        <v>9.889095960966371</v>
+      </c>
+      <c r="W81">
+        <v>0.1879993609940306</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -6039,7 +6519,7 @@
         <v>868.0427584</v>
       </c>
       <c r="O82">
-        <v>661.2263680999999</v>
+        <v>661.2263681</v>
       </c>
       <c r="P82">
         <v>1558.27739987</v>
@@ -6057,7 +6537,13 @@
         <v>81</v>
       </c>
       <c r="U82">
-        <v>607.899273019418</v>
+        <v>607.8992730194181</v>
+      </c>
+      <c r="V82">
+        <v>39.4919423457961</v>
+      </c>
+      <c r="W82">
+        <v>0.06496461518968556</v>
       </c>
     </row>
     <row r="83">
@@ -6128,6 +6614,12 @@
       <c r="U83">
         <v>99.9249392395616</v>
       </c>
+      <c r="V83">
+        <v>3.50901611204291</v>
+      </c>
+      <c r="W83">
+        <v>0.03511651984726596</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -6197,6 +6689,12 @@
       <c r="U84">
         <v>605.063106893335</v>
       </c>
+      <c r="V84">
+        <v>5.11054302963615</v>
+      </c>
+      <c r="W84">
+        <v>0.008446297537253539</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -6246,7 +6744,7 @@
         <v>297.9796387</v>
       </c>
       <c r="O85">
-        <v>609.2580263999999</v>
+        <v>609.2580264</v>
       </c>
       <c r="P85">
         <v>947.17047602</v>
@@ -6266,6 +6764,12 @@
       <c r="U85">
         <v>445.837356999608</v>
       </c>
+      <c r="V85">
+        <v>112.603861691286</v>
+      </c>
+      <c r="W85">
+        <v>0.2525671299710872</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -6318,7 +6822,7 @@
         <v>505.1830209</v>
       </c>
       <c r="P86">
-        <v>926.8446108099999</v>
+        <v>926.84461081</v>
       </c>
       <c r="Q86">
         <v>18.25572731</v>
@@ -6335,6 +6839,12 @@
       <c r="U86">
         <v>493.423353439735</v>
       </c>
+      <c r="V86">
+        <v>13.0239751779733</v>
+      </c>
+      <c r="W86">
+        <v>0.02639513328094634</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -6404,6 +6914,12 @@
       <c r="U87">
         <v>19.2313642505789</v>
       </c>
+      <c r="V87">
+        <v>0.9167191751562001</v>
+      </c>
+      <c r="W87">
+        <v>0.04766792221350626</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -6473,6 +6989,12 @@
       <c r="U88">
         <v>383.484635959072</v>
       </c>
+      <c r="V88">
+        <v>14.7706310446208</v>
+      </c>
+      <c r="W88">
+        <v>0.03851687827774466</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -6542,6 +7064,12 @@
       <c r="U89">
         <v>10.1058395588925</v>
       </c>
+      <c r="V89">
+        <v>0.877371960318016</v>
+      </c>
+      <c r="W89">
+        <v>0.08681831481739527</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -6611,6 +7139,12 @@
       <c r="U90">
         <v>122.185285051981</v>
       </c>
+      <c r="V90">
+        <v>26.9159106623716</v>
+      </c>
+      <c r="W90">
+        <v>0.2202876610789984</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -6680,6 +7214,12 @@
       <c r="U91">
         <v>89.7271411956239</v>
       </c>
+      <c r="V91">
+        <v>0.677630671334743</v>
+      </c>
+      <c r="W91">
+        <v>0.007552125948795879</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -6749,6 +7289,12 @@
       <c r="U92">
         <v>847.132340402935</v>
       </c>
+      <c r="V92">
+        <v>19.2682986835598</v>
+      </c>
+      <c r="W92">
+        <v>0.02274532297326166</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -6818,6 +7364,12 @@
       <c r="U93">
         <v>1731.04662799449</v>
       </c>
+      <c r="V93">
+        <v>24.8997127626647</v>
+      </c>
+      <c r="W93">
+        <v>0.01438419529548568</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -6887,6 +7439,12 @@
       <c r="U94">
         <v>320.130193237579</v>
       </c>
+      <c r="V94">
+        <v>19.8166607407209</v>
+      </c>
+      <c r="W94">
+        <v>0.06190187979555652</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -6956,6 +7514,12 @@
       <c r="U95">
         <v>166.968851406326</v>
       </c>
+      <c r="V95">
+        <v>0.110491004257177</v>
+      </c>
+      <c r="W95">
+        <v>0.0006617462079097155</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -7025,6 +7589,12 @@
       <c r="U96">
         <v>86.1306652160434</v>
       </c>
+      <c r="V96">
+        <v>0.484392758325954</v>
+      </c>
+      <c r="W96">
+        <v>0.00562392914429421</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -7094,6 +7664,12 @@
       <c r="U97">
         <v>321.368634307424</v>
       </c>
+      <c r="V97">
+        <v>9.54753715136796</v>
+      </c>
+      <c r="W97">
+        <v>0.02970898878150848</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -7114,7 +7690,7 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>0.1720628296825299</v>
+        <v>0.17206282968253</v>
       </c>
       <c r="G98">
         <v>0.02730082226176012</v>
@@ -7163,6 +7739,9 @@
       <c r="U98">
         <v>0</v>
       </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -7224,6 +7803,9 @@
         <v>98</v>
       </c>
       <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
         <v>0</v>
       </c>
     </row>
